--- a/Données/prem_histo.xlsx
+++ b/Données/prem_histo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YCarl\OneDrive\Bureau\analyse donnees textuelles\histo\ici\cmr-contributeurs-pages-et-discussions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YCarl\OneDrive\Bureau\Analyse_d_opinion\Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337F5B2-2221-4432-9E4F-58D83C9F518F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22453E18-7F8F-4092-A06D-3889DC0EB978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,14 +503,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" customWidth="1"/>
-    <col min="4" max="4" width="131.85546875" customWidth="1"/>
+    <col min="3" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
